--- a/sd-add-ms/ig/StructureDefinition-ror-organization.xlsx
+++ b/sd-add-ms/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:56:40+00:00</t>
+    <t>2024-02-07T14:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2489,20 +2489,20 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>Organization.address.line.extension:precinct</t>
-  </si>
-  <si>
-    <t>precinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
+    <t>Organization.address.line.extension:lieuDit</t>
+  </si>
+  <si>
+    <t>lieuDit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-lieu-dit}
 </t>
   </si>
   <si>
     <t>lieuDit (Adresse)</t>
   </si>
   <si>
-    <t>A subsection of a municipality.</t>
+    <t>Extension créée dans le cadre du ROR pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Organization.address.line.value</t>
@@ -25004,7 +25004,7 @@
         <v>73</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>81</v>
@@ -25106,7 +25106,7 @@
         <v>73</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>81</v>
